--- a/public/uploads/exports/FUKUI.xlsx
+++ b/public/uploads/exports/FUKUI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>グエン様専用注文フォーマット</t>
   </si>
@@ -81,43 +81,16 @@
     <t>数量</t>
   </si>
   <si>
-    <t>銀行振込</t>
-  </si>
-  <si>
-    <t>27/08/2020</t>
-  </si>
-  <si>
-    <t>08:00 ~ 12:00</t>
-  </si>
-  <si>
-    <t>TIẾN SAITAMA</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>333-0802 埼玉県川口市戸塚東１丁目１４−８</t>
-  </si>
-  <si>
-    <t>0788331234</t>
-  </si>
-  <si>
-    <t>31-10k-1</t>
-  </si>
-  <si>
-    <t>福井コシヒカリ玄米10kg</t>
-  </si>
-  <si>
-    <t>07/08/2020</t>
-  </si>
-  <si>
-    <t>16:00 ~ 18:00</t>
-  </si>
-  <si>
-    <t>ĐỒNG</t>
-  </si>
-  <si>
-    <t>埼玉県川口市戸塚東１丁目１４−７</t>
+    <t>代金引換</t>
+  </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>19:00～21:00</t>
+  </si>
+  <si>
+    <t>070-1398-2234</t>
   </si>
   <si>
     <t>793-8-3</t>
@@ -542,10 +515,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K6" sqref="K6:K10"/>
+      <selection activeCell="K6" sqref="K6:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,39 +665,30 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>3330802</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <f>IF(N8="","",K8-N8*O8-I8)</f>
-        <v>-800</v>
+        <v>-30</v>
       </c>
       <c r="K8" s="4">
-        <v>4000</v>
+        <v>6850</v>
       </c>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N8">
-        <v>4000</v>
+        <v>6550</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -735,41 +699,32 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>3330802</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <f>IF(N9="","",K9-N9*O9-I9)</f>
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>6550</v>
+        <v>6850</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N9">
         <v>6550</v>
@@ -779,7 +734,709 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="K10" s="4"/>
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <v>6550</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <v>6550</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <v>6550</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>6550</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <v>6550</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <v>6550</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <v>6550</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>6550</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>6550</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <v>6550</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>6550</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>6550</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>6550</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <v>6550</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>6550</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <v>6550</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>6550</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>6850</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>6550</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="K28" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
